--- a/Diameter/Determining the Diameter of Small World Networks-prototype/write/小世界网络直径计算数据.xlsx
+++ b/Diameter/Determining the Diameter of Small World Networks-prototype/write/小世界网络直径计算数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交替策略轮数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enron</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,11 +95,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF对局</t>
+    <t>CF 5次+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF对局，5次及以上作为边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSSP轮数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +471,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -496,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -513,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>17903</v>
@@ -533,13 +541,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>33696</v>
@@ -554,18 +562,18 @@
         <v>18.73</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>1694616</v>
@@ -580,18 +588,18 @@
         <v>7.65</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>855802</v>
@@ -606,21 +614,38 @@
         <v>6.6</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>892151</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9273672</v>
+      </c>
+      <c r="F6">
+        <v>9520</v>
+      </c>
+      <c r="G6">
+        <v>3.75</v>
+      </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>